--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765" tabRatio="447"/>
+    <workbookView windowWidth="24000" windowHeight="9765" tabRatio="447"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="467">
   <si>
     <t>题号</t>
   </si>
@@ -1555,7 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>P1508</t>
     </r>
@@ -1564,7 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
@@ -1573,7 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Likecloud-吃、吃、吃</t>
     </r>
@@ -1764,7 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>P1119</t>
     </r>
@@ -1773,7 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
@@ -1782,7 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>灾后重建</t>
     </r>
@@ -1799,7 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">P1220 </t>
     </r>
@@ -1989,6 +1989,9 @@
     <t>欧拉路径</t>
   </si>
   <si>
+    <t>我写的还是要回溯的，欧拉路是奇顶点的个数为0或2，为0的话是回路直接贪心搜，否则的话贪心选奇顶点</t>
+  </si>
+  <si>
     <t>9.4</t>
   </si>
   <si>
@@ -2085,11 +2088,20 @@
     <t>L 语言</t>
   </si>
   <si>
+    <t>Trie字典树（文章匹配）+暴力优化</t>
+  </si>
+  <si>
     <t>一开始写dfs来匹配，最后rose告诉我只需要把每次搜到匹配的位置都标出来，然后外层循环从那里再次开始匹配即可避免dfs</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -2097,43 +2109,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.18</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trie字典树（文章匹配）+暴力优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Nikitosh 和异或</t>
   </si>
   <si>
     <t>异或的消去性+异或前缀和+Trie</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一段区间的异或值可以用类似前缀和的方法得到，结合trie的最大异或对可以得到最大区间异或和。这个题里左右对称做一遍就可以了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.17</t>
   </si>
   <si>
     <t>The XOR-longest Path</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>经典模型：Trie+树上最大异或路径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>把根到每个节点的异或路径加入trie，然后又把每个路径弄进去查询。注意最大异或对要设定数字最大的长度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -2141,39 +2152,94 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.17</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.17</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Cow Fences</t>
+  </si>
+  <si>
+    <t>二分+平均数判断+贪心前缀和</t>
   </si>
   <si>
     <t>问题转化成一个序列求子序列可否平均数大于某值，可以先把所有值减去这个平均数，看某一段是否区间和大于0，做前缀和，保存前面的minn用后面的sum来减</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Cow Fences</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分+平均数判断+贪心前缀和</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Secret Message 秘密信息</t>
   </si>
   <si>
     <t>trie+两组串的是相互的前缀</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>把前面的串在trie上留链式的标记，又记录end，查询时加end标记，最后用链式标记看自己是几个串的前缀，同时减去重复的end。我还减了个'0'访问负数下标了！但是wa！？</t>
+  </si>
+  <si>
+    <t>Power Strings</t>
+  </si>
+  <si>
+    <t>hash盼最小循环</t>
+  </si>
+  <si>
+    <t>实际上暴力草过去就可以了，但是我整了个nxt数组，更傻逼的是我把初始化写到continue后面去了</t>
+  </si>
+  <si>
+    <t>Seek the Name, Seek the Fame</t>
+  </si>
+  <si>
+    <t>hash水题</t>
+  </si>
+  <si>
+    <t>令人舒适</t>
+  </si>
+  <si>
+    <t>三个朋友</t>
+  </si>
+  <si>
+    <t>hash+两端的merge</t>
+  </si>
+  <si>
+    <t>好想难调，我在hash时没有把s[]-'A'导致一组全是A的数据wa了，非常怪</t>
+  </si>
+  <si>
+    <t>Radio Transmission</t>
+  </si>
+  <si>
+    <t>KMP求本串由多少个子串循环而成的，注意可能是循环串的子串</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神奇结论题：ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = n - nxt[n]，详见证明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -2181,31 +2247,67 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.18</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>把前面的串在trie上留链式的标记，又记录end，查询时加end标记，最后用链式标记看自己是几个串的前缀，同时减去重复的end。我还减了个'0'访问负数下标了！但是wa！？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Strings</t>
-  </si>
-  <si>
-    <t>hash盼最小循环</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际上暴力草过去就可以了，但是我整了个nxt数组，更傻逼的是我把初始化写到continue后面去了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>.19</t>
+    </r>
+  </si>
+  <si>
+    <t>OKR-Periods of Words</t>
+  </si>
+  <si>
+    <t>求一个串的后缀匹配的最小前缀，然后n-这个后缀长度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大的后前缀公共串就是nxt，所以一直从最后一位跳nxt，最后一个不为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0的nxt就是最小前缀。用记忆化搜索，或者每次搜完后把当前nxt变为j就可以了</t>
+    </r>
+  </si>
+  <si>
+    <t>Censoring</t>
+  </si>
+  <si>
+    <t>在T串中匹配P串并删除，动态匹配及变化</t>
+  </si>
+  <si>
+    <t>使用了链表和记录了fn即每个位置的历史j值，在后面部分删除后，链表删除后，就是j变为历史匹配值，避免从头匹配</t>
+  </si>
+  <si>
+    <t>黑暗城堡</t>
+  </si>
+  <si>
+    <t>最小生成树？最短路 要求1到各点的最短路满足生成树，求生成树个数</t>
+  </si>
+  <si>
+    <t>用dij算出没个点到1的最短，然后计算每个点加入生成树的方案数。我sb了把cnt[v]++写错成cnt[v]++了，然后还以为是dij写错了，改了半个小时</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -2213,27 +2315,93 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.18</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seek the Name, Seek the Fame</t>
-  </si>
-  <si>
-    <t>hash水题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>令人舒适</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数学题：把野兽先辈拆分成：2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*31*1847</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意那个子集只能包含一个1，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1要特殊计数，然后这个值超大用ull或者int128才能过</t>
+    </r>
+  </si>
+  <si>
+    <t>消息的传递</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tarjan缩点+dag上入度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0的点的个数</t>
+    </r>
+  </si>
+  <si>
+    <t>dag的性质</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
     <r>
@@ -2241,403 +2409,115 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.18</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个朋友</t>
-  </si>
-  <si>
-    <t>hash+两端的merge</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>好想难调，我在hash时没有把s[]-'A'导致一组全是A的数据wa了，非常怪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radio Transmission</t>
-  </si>
-  <si>
-    <t>KMP求本串由多少个子串循环而成的，注意可能是循环串的子串</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>神奇结论题：ans</t>
-    </r>
+      <t>.11</t>
+    </r>
+  </si>
+  <si>
+    <t>间谍网络</t>
+  </si>
+  <si>
+    <t>tarjan缩点和上面那个题一样</t>
+  </si>
+  <si>
+    <t>不过要统计入度为0的点的花费</t>
+  </si>
+  <si>
+    <t>抢掠计划</t>
+  </si>
+  <si>
+    <t>tarjan缩点+从指定起点的最长路+多起点</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = n - nxt[n]，详见证明</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
+      <t>我写了一个dfs把有用的点拿出来再做top排序，但是未免复杂，我思维局限在了把入度为</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.19</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>OKR-Periods of Words</t>
-  </si>
-  <si>
-    <t>求一个串的后缀匹配的最小前缀，然后n-这个后缀长度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最大的后前缀公共串就是nxt，所以一直从最后一位跳nxt，最后一个不为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0的nxt就是最小前缀。用记忆化搜索，或者每次搜完后把当前nxt变为j就可以了</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.19</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Censoring</t>
-  </si>
-  <si>
-    <t>在T串中匹配P串并删除，动态匹配及变化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用了链表和记录了fn即每个位置的历史j值，在后面部分删除后，链表删除后，就是j变为历史匹配值，避免从头匹配</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.19</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>我写的还是要回溯的，欧拉路是奇顶点的个数为0或2，为0的话是回路直接贪心搜，否则的话贪心选奇顶点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗城堡</t>
-  </si>
-  <si>
-    <t>最小生成树？最短路 要求1到各点的最短路满足生成树，求生成树个数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>用dij算出没个点到1的最短，然后计算每个点加入生成树的方案数。我sb了把cnt[v]++写错成cnt[v]++了，然后还以为是dij写错了，改了半个小时</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.20</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>数学题：把野兽先辈拆分成：2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*31*1847</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注意那个子集只能包含一个1，所以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1要特殊计数，然后这个值超大用ull或者int128才能过</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.20</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的开始</t>
-  </si>
-  <si>
-    <t>最小生成树：超级原点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因为我们必须考虑那个起始点，而且可以有多个，所以想办法把他的权值弄进生成树里面 ，最后就是超级原点的思想 。像这种并列起始的思想：真的就是要想到超级原点啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.23</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>北极通讯网络</t>
-  </si>
-  <si>
-    <t>最小生成树+二分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意只有一条边的情况，二分最小值，用并查集计数有几个独立联通块，就完成check了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.22</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息的传递</t>
-  </si>
-  <si>
-    <r>
-      <t>tarjan缩点+dag上入度为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0的点的个数</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>dag的性质</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.11</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>间谍网络</t>
-  </si>
-  <si>
-    <t>tarjan缩点和上面那个题一样</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不过要统计入度为0的点的花费</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.11</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢掠计划</t>
-  </si>
-  <si>
-    <t>tarjan缩点+从指定起点的最长路+多起点</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我写了一个dfs把有用的点拿出来再做top排序，但是未免复杂，我思维局限在了把入度为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0的点加入队列，实际上直接把所有确定的起点拿来先加入队列然后做广搜，效果是一样的</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.11</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>架设电话线</t>
+  </si>
+  <si>
+    <t>二分+建图跑spfa check</t>
+  </si>
+  <si>
+    <t>关于“选（不超过）k条边”的写法可以根据长度二分，把大于或者小于mid的边边权置为1或0，然后进行最短路就可以得到满足需要的路径是否选了k个符合条件的边。由此得到“第k+1大” 的边</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>Sightseeing Trip</t>
+  </si>
+  <si>
+    <t>Floyd+找最小环</t>
+  </si>
+  <si>
+    <t>利用k是阶段的性质：然后把每次k以前的点都是最短路的性质，加上k形成环，由此更新。注意这里是无向图</t>
+  </si>
+  <si>
+    <t>农场派对</t>
+  </si>
+  <si>
+    <t>双向图的应用</t>
+  </si>
+  <si>
+    <t>正向图是单元最短路，反向图是所有点到原点的最短路，来回就是dis1+dis2。信心题</t>
+  </si>
+  <si>
+    <t>Roadblocks</t>
+  </si>
+  <si>
+    <t>次短路模板spfa/dijkstra</t>
+  </si>
+  <si>
+    <t>忘完了总之先看了网上的学了2遍spfa的方法：得到1到所有点，所有点到n。让每个边都有一个成为次短路的机会，暴力枚举，正确性就是暴力。           然后是dij，在更新短路值的时候更新次短路。</t>
+  </si>
+  <si>
+    <t>次小生成树</t>
+  </si>
+  <si>
+    <t>严格次小生成树模板</t>
+  </si>
+  <si>
+    <t>总之lca加断边，很好理解，就是在求那个次大边权值的时候把我整蒙了，然后结合lca的求次大边、最大边的函数写丑了wa了两个点，改成求两边之后就过了loj，但是落谷还是wa了一个点。准备重构</t>
+  </si>
+  <si>
+    <t>秘密的牛奶运输</t>
+  </si>
+  <si>
+    <t>上面那个题交过来就a了，双倍经验吧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2657,7 +2537,7 @@
       <sz val="12"/>
       <color indexed="49"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2668,7 +2548,7 @@
       <sz val="12"/>
       <color rgb="FF0056B3"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2680,7 +2560,156 @@
       <sz val="12"/>
       <color rgb="FF3498DB"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1E70BF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2695,23 +2724,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2730,8 +2744,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2767,12 +2967,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2792,13 +3231,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,7 +3246,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2831,10 +3270,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2851,25 +3290,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2880,7 +3370,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2902,7 +3392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect r="3570" b="12625"/>
         <a:stretch>
           <a:fillRect/>
@@ -2941,7 +3431,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2971,7 +3461,7 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
@@ -3003,6 +3493,81 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3269615</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>502285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>715010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11175365" y="43543220"/>
+          <a:ext cx="544830" cy="212725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>真香</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3287,19 +3852,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="37.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="66.625" style="1" customWidth="1"/>
@@ -3322,7 +3887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3336,7 +3901,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3915,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3364,7 +3929,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
+    <row r="5" ht="30" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3943,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3957,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3971,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
+    <row r="8" ht="30" customHeight="1" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3420,7 +3985,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3431,10 +3996,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +4013,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1">
+    <row r="11" ht="30" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +4025,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
+    <row r="12" ht="30" customHeight="1" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -3474,7 +4039,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
+    <row r="13" ht="30" customHeight="1" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -3486,7 +4051,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
+    <row r="14" ht="30" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -3498,7 +4063,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -3512,7 +4077,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -3526,7 +4091,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -3540,7 +4105,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1">
+    <row r="18" ht="30" customHeight="1" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
@@ -3554,7 +4119,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1">
+    <row r="19" ht="30" customHeight="1" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -3568,7 +4133,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
+    <row r="20" ht="30" customHeight="1" spans="1:4">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -3582,7 +4147,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1">
+    <row r="21" ht="30" customHeight="1" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -3596,7 +4161,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="38.25" customHeight="1">
+    <row r="22" ht="38.25" customHeight="1" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -3610,7 +4175,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
@@ -3624,7 +4189,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
@@ -3638,7 +4203,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1">
+    <row r="25" ht="45" customHeight="1" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -3652,7 +4217,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -3666,7 +4231,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.5" customHeight="1">
+    <row r="27" ht="43.5" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
@@ -3680,7 +4245,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="42" customHeight="1">
+    <row r="28" ht="42" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>78</v>
       </c>
@@ -3694,7 +4259,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1">
+    <row r="29" ht="30" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>81</v>
       </c>
@@ -3708,7 +4273,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="61.5" customHeight="1">
+    <row r="30" ht="61.5" customHeight="1" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -3722,7 +4287,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1">
+    <row r="31" ht="30" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
@@ -3736,7 +4301,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1">
+    <row r="32" ht="30" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -3750,7 +4315,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
+    <row r="33" ht="30" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
@@ -3764,7 +4329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1">
+    <row r="34" ht="30" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
@@ -3778,7 +4343,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -3792,7 +4357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
+    <row r="36" ht="30" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -3806,7 +4371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="40.5">
+    <row r="37" ht="40.5" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -3820,7 +4385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
+    <row r="38" ht="30" customHeight="1" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>110</v>
       </c>
@@ -3834,7 +4399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
+    <row r="39" ht="30" customHeight="1" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
@@ -3848,7 +4413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1">
+    <row r="40" ht="30" customHeight="1" spans="1:4">
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
@@ -3862,7 +4427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1">
+    <row r="41" ht="30" customHeight="1" spans="1:4">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -3876,7 +4441,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1">
+    <row r="42" ht="30" customHeight="1" spans="1:4">
       <c r="A42" s="7" t="s">
         <v>123</v>
       </c>
@@ -3890,7 +4455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1">
+    <row r="43" ht="30" customHeight="1" spans="1:4">
       <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
@@ -3904,7 +4469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1">
+    <row r="44" ht="30" customHeight="1" spans="1:4">
       <c r="A44" s="7" t="s">
         <v>129</v>
       </c>
@@ -3918,7 +4483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1">
+    <row r="45" ht="30" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -3932,7 +4497,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1">
+    <row r="46" ht="30" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>134</v>
       </c>
@@ -3946,7 +4511,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1">
+    <row r="47" ht="30" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
         <v>138</v>
       </c>
@@ -3960,7 +4525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1">
+    <row r="48" ht="30" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
         <v>141</v>
       </c>
@@ -3974,7 +4539,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
+    <row r="49" ht="30" customHeight="1" spans="1:4">
       <c r="A49" s="7" t="s">
         <v>144</v>
       </c>
@@ -3988,7 +4553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -4002,7 +4567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1">
+    <row r="51" ht="30" customHeight="1" spans="1:5">
       <c r="A51" s="12" t="s">
         <v>149</v>
       </c>
@@ -4017,7 +4582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
+    <row r="52" ht="30" customHeight="1" spans="1:5">
       <c r="A52" s="7" t="s">
         <v>153</v>
       </c>
@@ -4034,7 +4599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" spans="1:5">
       <c r="A53" s="7" t="s">
         <v>157</v>
       </c>
@@ -4051,7 +4616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
+    <row r="54" ht="30" customHeight="1" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>160</v>
       </c>
@@ -4068,7 +4633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>162</v>
       </c>
@@ -4085,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1">
+    <row r="56" ht="30" customHeight="1" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>165</v>
       </c>
@@ -4102,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>168</v>
       </c>
@@ -4119,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="40.5" customHeight="1">
+    <row r="58" ht="40.5" customHeight="1" spans="1:7">
       <c r="A58" s="7" t="s">
         <v>171</v>
       </c>
@@ -4139,7 +4704,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1">
+    <row r="59" ht="30" customHeight="1" spans="1:7">
       <c r="A59" s="18" t="s">
         <v>176</v>
       </c>
@@ -4159,7 +4724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1">
+    <row r="60" ht="30" customHeight="1" spans="1:5">
       <c r="A60" s="7" t="s">
         <v>180</v>
       </c>
@@ -4176,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1">
+    <row r="61" ht="30" customHeight="1" spans="1:5">
       <c r="A61" s="7" t="s">
         <v>183</v>
       </c>
@@ -4193,7 +4758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1">
+    <row r="62" ht="30" customHeight="1" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>185</v>
       </c>
@@ -4210,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
+    <row r="63" ht="30" customHeight="1" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>189</v>
       </c>
@@ -4227,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
+    <row r="64" ht="30" customHeight="1" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>192</v>
       </c>
@@ -4244,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1">
+    <row r="65" ht="30" customHeight="1" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>195</v>
       </c>
@@ -4261,7 +4826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1">
+    <row r="66" ht="30" customHeight="1" spans="1:4">
       <c r="A66" s="7" t="s">
         <v>199</v>
       </c>
@@ -4275,7 +4840,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1">
+    <row r="67" ht="30" customHeight="1" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>202</v>
       </c>
@@ -4289,7 +4854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1">
+    <row r="68" ht="30" customHeight="1" spans="1:5">
       <c r="A68" s="19" t="s">
         <v>206</v>
       </c>
@@ -4306,7 +4871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1">
+    <row r="69" ht="30" customHeight="1" spans="1:5">
       <c r="A69" s="7" t="s">
         <v>211</v>
       </c>
@@ -4323,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1">
+    <row r="70" ht="30" customHeight="1" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>214</v>
       </c>
@@ -4340,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="61.5" customHeight="1">
+    <row r="71" ht="61.5" customHeight="1" spans="1:5">
       <c r="A71" s="7" t="s">
         <v>217</v>
       </c>
@@ -4357,7 +4922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="46.5" customHeight="1">
+    <row r="72" ht="46.5" customHeight="1" spans="1:5">
       <c r="A72" s="7" t="s">
         <v>221</v>
       </c>
@@ -4374,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="60" customHeight="1">
+    <row r="73" ht="60" customHeight="1" spans="1:5">
       <c r="A73" s="20" t="s">
         <v>224</v>
       </c>
@@ -4391,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="49.5" customHeight="1">
+    <row r="74" ht="49.5" customHeight="1" spans="1:5">
       <c r="A74" s="21" t="s">
         <v>228</v>
       </c>
@@ -4408,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1">
+    <row r="75" ht="30" customHeight="1" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>231</v>
       </c>
@@ -4425,7 +4990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="54">
+    <row r="76" ht="54" spans="1:5">
       <c r="A76" s="7" t="s">
         <v>234</v>
       </c>
@@ -4442,7 +5007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1">
+    <row r="77" ht="30" customHeight="1" spans="1:5">
       <c r="A77" s="22" t="s">
         <v>238</v>
       </c>
@@ -4459,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1">
+    <row r="78" ht="30" customHeight="1" spans="1:5">
       <c r="A78" s="8" t="s">
         <v>241</v>
       </c>
@@ -4476,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1">
+    <row r="79" ht="30" customHeight="1" spans="1:5">
       <c r="A79" s="22" t="s">
         <v>244</v>
       </c>
@@ -4493,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="87" customHeight="1">
+    <row r="80" ht="87" customHeight="1" spans="1:5">
       <c r="A80" s="8" t="s">
         <v>247</v>
       </c>
@@ -4510,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="66" customHeight="1">
+    <row r="81" ht="66" customHeight="1" spans="1:5">
       <c r="A81" s="23" t="s">
         <v>251</v>
       </c>
@@ -4527,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="82.15" customHeight="1">
+    <row r="82" ht="82.15" customHeight="1" spans="1:5">
       <c r="A82" s="8" t="s">
         <v>254</v>
       </c>
@@ -4544,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="49.15" customHeight="1">
+    <row r="83" ht="49.15" customHeight="1" spans="1:5">
       <c r="A83" s="7" t="s">
         <v>258</v>
       </c>
@@ -4561,7 +5126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="112.15" customHeight="1">
+    <row r="84" ht="112.15" customHeight="1" spans="1:5">
       <c r="A84" s="7" t="s">
         <v>261</v>
       </c>
@@ -4578,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="55.9" customHeight="1">
+    <row r="85" ht="55.9" customHeight="1" spans="1:5">
       <c r="A85" s="7" t="s">
         <v>264</v>
       </c>
@@ -4595,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1">
+    <row r="86" ht="30" customHeight="1" spans="1:5">
       <c r="A86" s="8" t="s">
         <v>266</v>
       </c>
@@ -4612,7 +5177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1">
+    <row r="87" ht="30" customHeight="1" spans="1:5">
       <c r="A87" s="8" t="s">
         <v>268</v>
       </c>
@@ -4629,7 +5194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="66" customHeight="1">
+    <row r="88" ht="66" customHeight="1" spans="1:5">
       <c r="A88" s="26" t="s">
         <v>272</v>
       </c>
@@ -4646,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1">
+    <row r="89" ht="30" customHeight="1" spans="1:5">
       <c r="A89" s="21" t="s">
         <v>274</v>
       </c>
@@ -4663,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="52.15" customHeight="1">
+    <row r="90" ht="52.15" customHeight="1" spans="1:5">
       <c r="A90" s="27" t="s">
         <v>277</v>
       </c>
@@ -4680,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1">
+    <row r="91" ht="30" customHeight="1" spans="1:5">
       <c r="A91" s="8" t="s">
         <v>280</v>
       </c>
@@ -4697,7 +5262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="73.150000000000006" customHeight="1">
+    <row r="92" ht="73.15" customHeight="1" spans="1:5">
       <c r="A92" s="28" t="s">
         <v>283</v>
       </c>
@@ -4714,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="49.15" customHeight="1">
+    <row r="93" ht="49.15" customHeight="1" spans="1:5">
       <c r="A93" s="8" t="s">
         <v>287</v>
       </c>
@@ -4731,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="57" customHeight="1">
+    <row r="94" ht="57" customHeight="1" spans="1:5">
       <c r="A94" s="8" t="s">
         <v>291</v>
       </c>
@@ -4746,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1">
+    <row r="95" ht="30" customHeight="1" spans="1:4">
       <c r="A95" s="8" t="s">
         <v>294</v>
       </c>
@@ -4758,7 +5323,7 @@
       </c>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" spans="1:4">
       <c r="A96" s="23" t="s">
         <v>297</v>
       </c>
@@ -4770,7 +5335,7 @@
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" spans="1:4">
       <c r="A97" s="29" t="s">
         <v>300</v>
       </c>
@@ -4782,7 +5347,7 @@
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4" ht="30" customHeight="1">
+    <row r="98" ht="30" customHeight="1" spans="1:4">
       <c r="A98" s="29" t="s">
         <v>302</v>
       </c>
@@ -4794,7 +5359,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4" ht="30" customHeight="1">
+    <row r="99" ht="30" customHeight="1" spans="1:4">
       <c r="A99" s="29" t="s">
         <v>305</v>
       </c>
@@ -4806,7 +5371,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" ht="43.15" customHeight="1">
+    <row r="100" ht="43.15" customHeight="1" spans="1:4">
       <c r="A100" s="21" t="s">
         <v>308</v>
       </c>
@@ -4820,7 +5385,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" customHeight="1">
+    <row r="101" ht="30" customHeight="1" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -4834,7 +5399,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="54" customHeight="1">
+    <row r="102" ht="54" customHeight="1" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>316</v>
       </c>
@@ -4848,7 +5413,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="76.150000000000006" customHeight="1">
+    <row r="103" ht="76.15" customHeight="1" spans="1:4">
       <c r="A103" s="4" t="s">
         <v>319</v>
       </c>
@@ -4862,7 +5427,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="58.15" customHeight="1">
+    <row r="104" ht="58.15" customHeight="1" spans="1:4">
       <c r="A104" s="8" t="s">
         <v>322</v>
       </c>
@@ -4876,7 +5441,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="46.15" customHeight="1">
+    <row r="105" ht="46.15" customHeight="1" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>326</v>
       </c>
@@ -4890,7 +5455,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="46.9" customHeight="1">
+    <row r="106" ht="46.9" customHeight="1" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>329</v>
       </c>
@@ -4904,7 +5469,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" customHeight="1">
+    <row r="107" ht="30" customHeight="1" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>332</v>
       </c>
@@ -4918,7 +5483,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" customHeight="1">
+    <row r="108" ht="30" customHeight="1" spans="1:4">
       <c r="A108" s="4" t="s">
         <v>335</v>
       </c>
@@ -4932,7 +5497,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" customHeight="1">
+    <row r="109" ht="30" customHeight="1" spans="1:4">
       <c r="A109" s="4" t="s">
         <v>339</v>
       </c>
@@ -4940,7 +5505,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" ht="51" customHeight="1">
+    <row r="110" ht="51" customHeight="1" spans="1:4">
       <c r="A110" s="4" t="s">
         <v>340</v>
       </c>
@@ -4954,7 +5519,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="42" customHeight="1">
+    <row r="111" ht="42" customHeight="1" spans="1:4">
       <c r="A111" s="4" t="s">
         <v>343</v>
       </c>
@@ -4968,7 +5533,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="76.900000000000006" customHeight="1">
+    <row r="112" ht="76.9" customHeight="1" spans="1:4">
       <c r="A112" s="4" t="s">
         <v>347</v>
       </c>
@@ -4982,7 +5547,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" customHeight="1">
+    <row r="113" ht="30" customHeight="1" spans="1:4">
       <c r="A113" s="4" t="s">
         <v>350</v>
       </c>
@@ -4996,7 +5561,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" customHeight="1">
+    <row r="114" ht="45" customHeight="1" spans="1:4">
       <c r="A114" s="4" t="s">
         <v>354</v>
       </c>
@@ -5010,7 +5575,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30" customHeight="1">
+    <row r="115" ht="30" customHeight="1" spans="1:4">
       <c r="A115" s="23" t="s">
         <v>358</v>
       </c>
@@ -5024,7 +5589,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="42" customHeight="1">
+    <row r="116" ht="42" customHeight="1" spans="1:4">
       <c r="A116" s="4" t="s">
         <v>362</v>
       </c>
@@ -5032,181 +5597,181 @@
         <v>363</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="30" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1" spans="1:4">
       <c r="A117" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="30" customHeight="1">
+    </row>
+    <row r="118" ht="30" customHeight="1" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="45.75" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" ht="45.75" customHeight="1" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30" customHeight="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" ht="30" customHeight="1" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="30" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="121" ht="30" customHeight="1" spans="1:4">
       <c r="A121" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30" customHeight="1">
+    </row>
+    <row r="122" ht="30" customHeight="1" spans="1:4">
       <c r="A122" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="66.75" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" ht="66.75" customHeight="1" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="30" customHeight="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" ht="30" customHeight="1" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="49.5" customHeight="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" ht="49.5" customHeight="1" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B126" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="C126" s="31" t="s">
-        <v>396</v>
-      </c>
       <c r="D126" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="48" customHeight="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" ht="48" customHeight="1" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D127" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1" spans="1:4">
+      <c r="A128" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C128" s="31" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" customHeight="1">
-      <c r="A128" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>404</v>
-      </c>
       <c r="D128" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="56.25" customHeight="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" ht="56.25" customHeight="1" spans="1:4">
       <c r="A129" s="30" t="s">
         <v>408</v>
       </c>
@@ -5214,27 +5779,27 @@
         <v>409</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D129" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="54" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="130" ht="54" customHeight="1" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C130" s="31" t="s">
         <v>413</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="30" customHeight="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" spans="1:4">
       <c r="A131" s="4" t="s">
         <v>414</v>
       </c>
@@ -5245,396 +5810,438 @@
         <v>416</v>
       </c>
       <c r="D131" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1" spans="1:4">
+      <c r="A132" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="30" customHeight="1">
-      <c r="A132" s="4" t="s">
+      <c r="B132" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="C132" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="D132" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" spans="1:4">
+      <c r="A133" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D132" s="32" t="s">
+      <c r="B133" s="30" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="30" customHeight="1">
-      <c r="A133" s="7" t="s">
+      <c r="C133" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="D133" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" spans="1:4">
+      <c r="A134" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="B134" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="D133" s="32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="30" customHeight="1">
-      <c r="A134" s="8" t="s">
+      <c r="C134" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="D134" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="C134" s="31" t="s">
+    </row>
+    <row r="135" ht="46.5" customHeight="1" spans="1:4">
+      <c r="A135" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D134" s="32" t="s">
+      <c r="B135" s="30" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="46.5" customHeight="1">
-      <c r="A135" s="7" t="s">
+      <c r="C135" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="D135" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" ht="50.25" customHeight="1" spans="1:4">
+      <c r="A136" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="B136" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="D135" s="32" t="s">
+      <c r="C136" s="31" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A136" s="7" t="s">
+      <c r="D136" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" ht="50.25" customHeight="1" spans="1:4">
+      <c r="A137" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B137" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C137" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="D136" s="32" t="s">
+      <c r="D137" s="32" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="50.25" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="30" customHeight="1">
+    <row r="138" ht="30" customHeight="1" spans="1:4">
       <c r="A138" s="7">
         <v>114514</v>
       </c>
       <c r="B138" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" ht="30" customHeight="1" spans="1:4">
+      <c r="A139" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="C138" s="31" t="s">
+    </row>
+    <row r="140" ht="30" customHeight="1" spans="1:4">
+      <c r="A140" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D138" s="32" t="s">
+      <c r="B140" s="30" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="59.25" customHeight="1">
-      <c r="A139" s="7" t="s">
+      <c r="C140" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="D140" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" ht="56" customHeight="1" spans="1:4">
+      <c r="A141" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="B141" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="C141" s="31" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="30" customHeight="1">
-      <c r="A140" s="7" t="s">
+      <c r="D141" s="32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="142" ht="59" customHeight="1" spans="1:4">
+      <c r="A142" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B142" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="C142" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D142" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30" customHeight="1">
-      <c r="A141" s="21" t="s">
+    <row r="143" ht="57" customHeight="1" spans="1:4">
+      <c r="A143" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B143" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="C143" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D143" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" spans="1:4">
+      <c r="A144" s="21" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="30" customHeight="1">
-      <c r="A142" s="21" t="s">
+      <c r="B144" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="C144" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="D144" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" ht="105" customHeight="1" spans="1:4">
+      <c r="A145" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="B145" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A143" s="21" t="s">
+      <c r="C145" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="D145" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" ht="57" customHeight="1" spans="1:4">
+      <c r="A146" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="B146" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D143" s="32" t="s">
+      <c r="C146" s="5" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="30" customHeight="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" ht="30" customHeight="1">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" ht="30" customHeight="1">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" ht="30" customHeight="1">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" ht="30" customHeight="1">
+      <c r="D146" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" spans="1:4">
+      <c r="A147" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" ht="30" customHeight="1" spans="1:4">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="1:4" ht="30" customHeight="1">
+    <row r="149" ht="30" customHeight="1" spans="1:4">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4" ht="30" customHeight="1">
+    <row r="150" ht="30" customHeight="1" spans="1:4">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4" ht="30" customHeight="1">
+    <row r="151" ht="30" customHeight="1" spans="1:4">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4" ht="30" customHeight="1">
+    <row r="152" ht="30" customHeight="1" spans="1:4">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4" ht="30" customHeight="1">
+    <row r="153" ht="30" customHeight="1" spans="1:4">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="1:4" ht="30" customHeight="1">
+    <row r="154" ht="30" customHeight="1" spans="1:4">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4" ht="30" customHeight="1">
+    <row r="155" ht="30" customHeight="1" spans="1:4">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4" ht="30" customHeight="1">
+    <row r="156" ht="30" customHeight="1" spans="1:4">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4" ht="30" customHeight="1">
+    <row r="157" ht="30" customHeight="1" spans="1:4">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4" ht="30" customHeight="1">
+    <row r="158" ht="30" customHeight="1" spans="1:4">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="1:4" ht="30" customHeight="1">
+    <row r="159" ht="30" customHeight="1" spans="1:4">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
       <c r="D159" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
-    <hyperlink ref="A14" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
-    <hyperlink ref="A16" r:id="rId5"/>
-    <hyperlink ref="A17" r:id="rId6"/>
-    <hyperlink ref="A18" r:id="rId7"/>
-    <hyperlink ref="A19" r:id="rId8"/>
-    <hyperlink ref="A20" r:id="rId9"/>
-    <hyperlink ref="A22" r:id="rId10"/>
-    <hyperlink ref="A21" r:id="rId11"/>
-    <hyperlink ref="A23" r:id="rId12"/>
-    <hyperlink ref="A24" r:id="rId13"/>
-    <hyperlink ref="A25" r:id="rId14"/>
-    <hyperlink ref="A26" r:id="rId15"/>
-    <hyperlink ref="A27" r:id="rId16"/>
-    <hyperlink ref="A28" r:id="rId17"/>
-    <hyperlink ref="A29" r:id="rId18"/>
-    <hyperlink ref="A30" r:id="rId19"/>
-    <hyperlink ref="A31" r:id="rId20"/>
-    <hyperlink ref="A32" r:id="rId21"/>
-    <hyperlink ref="A33" r:id="rId22"/>
-    <hyperlink ref="A34" r:id="rId23"/>
-    <hyperlink ref="A36" r:id="rId24"/>
-    <hyperlink ref="A37" r:id="rId25"/>
-    <hyperlink ref="A38" r:id="rId26"/>
-    <hyperlink ref="A39" r:id="rId27"/>
-    <hyperlink ref="A40" r:id="rId28"/>
-    <hyperlink ref="A41" r:id="rId29"/>
-    <hyperlink ref="A42" r:id="rId30"/>
-    <hyperlink ref="A43" r:id="rId31"/>
-    <hyperlink ref="A44" r:id="rId32"/>
-    <hyperlink ref="A45" r:id="rId33"/>
-    <hyperlink ref="A46" r:id="rId34"/>
-    <hyperlink ref="A47" r:id="rId35"/>
-    <hyperlink ref="A48" r:id="rId36"/>
-    <hyperlink ref="A49" r:id="rId37"/>
-    <hyperlink ref="A50" r:id="rId38"/>
-    <hyperlink ref="A51" r:id="rId39"/>
-    <hyperlink ref="A52" r:id="rId40"/>
-    <hyperlink ref="A53" r:id="rId41"/>
-    <hyperlink ref="A54" r:id="rId42"/>
-    <hyperlink ref="A55" r:id="rId43"/>
-    <hyperlink ref="A56" r:id="rId44"/>
-    <hyperlink ref="A57" r:id="rId45"/>
-    <hyperlink ref="A58" r:id="rId46"/>
-    <hyperlink ref="A60" r:id="rId47"/>
-    <hyperlink ref="A61" r:id="rId48"/>
-    <hyperlink ref="A62" r:id="rId49"/>
-    <hyperlink ref="A63" r:id="rId50"/>
-    <hyperlink ref="A64" r:id="rId51"/>
-    <hyperlink ref="A65" r:id="rId52"/>
-    <hyperlink ref="A66" r:id="rId53"/>
-    <hyperlink ref="A67" r:id="rId54"/>
-    <hyperlink ref="A69" r:id="rId55"/>
-    <hyperlink ref="A70" r:id="rId56"/>
-    <hyperlink ref="A71" r:id="rId57"/>
-    <hyperlink ref="A72" r:id="rId58"/>
-    <hyperlink ref="A73" r:id="rId59"/>
-    <hyperlink ref="A74" r:id="rId60"/>
-    <hyperlink ref="A76" r:id="rId61"/>
-    <hyperlink ref="A77" r:id="rId62" tooltip="https://www.luogu.org/problem/P1372"/>
-    <hyperlink ref="A78" r:id="rId63"/>
-    <hyperlink ref="A80" r:id="rId64"/>
-    <hyperlink ref="A82" r:id="rId65"/>
-    <hyperlink ref="A83" r:id="rId66"/>
-    <hyperlink ref="A84" r:id="rId67"/>
-    <hyperlink ref="A85" r:id="rId68"/>
-    <hyperlink ref="A86" r:id="rId69"/>
-    <hyperlink ref="A87" r:id="rId70"/>
-    <hyperlink ref="A89" r:id="rId71"/>
-    <hyperlink ref="A90" r:id="rId72" tooltip="https://www.luogu.org/problem/P1126"/>
-    <hyperlink ref="A91" r:id="rId73"/>
-    <hyperlink ref="A92" r:id="rId74"/>
-    <hyperlink ref="A93" r:id="rId75"/>
-    <hyperlink ref="A94" r:id="rId76"/>
-    <hyperlink ref="A95" r:id="rId77"/>
-    <hyperlink ref="A97" r:id="rId78" tooltip="https://www.luogu.org/problem/P1098"/>
-    <hyperlink ref="A100" r:id="rId79"/>
-    <hyperlink ref="A104" r:id="rId80"/>
-    <hyperlink ref="A133" r:id="rId81" display="http://172.168.201.233:5283/contest/9/problem/8"/>
-    <hyperlink ref="A134" r:id="rId82"/>
-    <hyperlink ref="A135" r:id="rId83" display="https://loj.ac/problem/10046"/>
-    <hyperlink ref="A136" r:id="rId84" display="https://loj.ac/problem/10048"/>
-    <hyperlink ref="A137" r:id="rId85" display="https://loj.ac/problem/10064"/>
-    <hyperlink ref="A138" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/1087/B"/>
-    <hyperlink ref="A139" r:id="rId87" display="https://loj.ac/problem/10066"/>
-    <hyperlink ref="A140" r:id="rId88" display="https://loj.ac/problem/10065"/>
-    <hyperlink ref="A141" r:id="rId89" display="https://loj.ac/problem/10094"/>
-    <hyperlink ref="A142" r:id="rId90" display="https://loj.ac/problem/10095"/>
-    <hyperlink ref="A143" r:id="rId91" display="https://loj.ac/problem/10096"/>
+    <hyperlink ref="A11" r:id="rId2" display="上白泽慧音 "/>
+    <hyperlink ref="A13" r:id="rId3" display="P5462 X龙珠"/>
+    <hyperlink ref="A14" r:id="rId4" display="P5463 小鱼比可爱（加强版） "/>
+    <hyperlink ref="A15" r:id="rId5" display="P3377 【模板】左偏树（可并堆） "/>
+    <hyperlink ref="A16" r:id="rId6" display="P3373 【模板】线段树 2 "/>
+    <hyperlink ref="A17" r:id="rId7" display="P1631 序列合并 "/>
+    <hyperlink ref="A18" r:id="rId8" display="P1880 [NOI1995]石子合并 "/>
+    <hyperlink ref="A19" r:id="rId9" display="AT2827 LIS "/>
+    <hyperlink ref="A20" r:id="rId10" display="【模板】可持久化数组（可持久化线段树/平衡树） "/>
+    <hyperlink ref="A22" r:id="rId11" display="P1005 矩阵取数游戏 "/>
+    <hyperlink ref="A21" r:id="rId12" display="#6560. 小奇取石子"/>
+    <hyperlink ref="A23" r:id="rId13" display="poj2955Brackets"/>
+    <hyperlink ref="A24" r:id="rId14" display=" [IOI1998]Polygon "/>
+    <hyperlink ref="A25" r:id="rId15" display="P2746 [USACO5.3]校园网Network of Schools "/>
+    <hyperlink ref="A26" r:id="rId16" display=" 没有上司的舞会"/>
+    <hyperlink ref="A27" r:id="rId17" display="P2015 二叉苹果树 "/>
+    <hyperlink ref="A28" r:id="rId18" display="P1757 通天之分组背包 "/>
+    <hyperlink ref="A29" r:id="rId19" display="P1273 有线电视网 "/>
+    <hyperlink ref="A30" r:id="rId20" display="P2607 [ZJOI2008]骑士 "/>
+    <hyperlink ref="A31" r:id="rId21" display="挖地雷"/>
+    <hyperlink ref="A32" r:id="rId22" display="小凯的疑惑"/>
+    <hyperlink ref="A33" r:id="rId23" display="P1972 [SDOI2009]HH的项链 "/>
+    <hyperlink ref="A34" r:id="rId24" display="SP3267 DQUERY - D-query "/>
+    <hyperlink ref="A36" r:id="rId25" display="P2023 [AHOI2009]维护序列"/>
+    <hyperlink ref="A37" r:id="rId26" display="Can you answer these queries III "/>
+    <hyperlink ref="A38" r:id="rId27" display="P2240 数的计数数据加强版 "/>
+    <hyperlink ref="A39" r:id="rId28" display="P2279 [HNOI2003]消防局的设立 "/>
+    <hyperlink ref="A40" r:id="rId29" display="P1111 修复公路 "/>
+    <hyperlink ref="A41" r:id="rId30" display="P2698 [USACO12MAR]花盆Flowerpot "/>
+    <hyperlink ref="A42" r:id="rId31" display="P1182 数列分段 Section II "/>
+    <hyperlink ref="A43" r:id="rId32" display="P1134 阶乘问题 "/>
+    <hyperlink ref="A44" r:id="rId33" display="P1316 丢瓶盖 "/>
+    <hyperlink ref="A45" r:id="rId34" display="P1939 【模板】矩阵加速（数列） "/>
+    <hyperlink ref="A46" r:id="rId35" display="P1020 导弹拦截 "/>
+    <hyperlink ref="A47" r:id="rId36" display=" [JSOI2004]平衡点 / 吊打XXX "/>
+    <hyperlink ref="A48" r:id="rId37" display="[SHOI2002]滑雪 "/>
+    <hyperlink ref="A49" r:id="rId38" display="[USACO09MAR]沙堡Sand Castle "/>
+    <hyperlink ref="A50" r:id="rId39" display=" [AHOI2005]约数研究 "/>
+    <hyperlink ref="A51" r:id="rId40" display="P1282 多米诺骨牌 "/>
+    <hyperlink ref="A52" r:id="rId41" display=" [HAOI2012]音量调节 "/>
+    <hyperlink ref="A53" r:id="rId42" display="bxt 光环"/>
+    <hyperlink ref="A54" r:id="rId43" display="P1569 [USACO11FEB]属牛的抗议"/>
+    <hyperlink ref="A55" r:id="rId44" display="P1865 A % B Problem "/>
+    <hyperlink ref="A56" r:id="rId45" display="P2663 越越的组队 "/>
+    <hyperlink ref="A57" r:id="rId46" display="P2504 [HAOI2006]聪明的猴子 "/>
+    <hyperlink ref="A58" r:id="rId47" display="P1006 传纸条"/>
+    <hyperlink ref="A60" r:id="rId48" display="[NOI2001]食物链"/>
+    <hyperlink ref="A61" r:id="rId49" display="能量项链"/>
+    <hyperlink ref="A62" r:id="rId50" display="[JSOI2008]星球大战"/>
+    <hyperlink ref="A63" r:id="rId51" display="[ZJOI2008]树的统计"/>
+    <hyperlink ref="A64" r:id="rId52" display=" [HAOI2015]树上染色"/>
+    <hyperlink ref="A65" r:id="rId53" display=" [NOI2015]程序自动分析"/>
+    <hyperlink ref="A66" r:id="rId54" display="P1967 货车运输"/>
+    <hyperlink ref="A67" r:id="rId55" display="失衡天平"/>
+    <hyperlink ref="A69" r:id="rId56" display="P4316 绿豆蛙的归宿"/>
+    <hyperlink ref="A70" r:id="rId57" display="P1850 换教室"/>
+    <hyperlink ref="A71" r:id="rId58" display="P1541 乌龟棋"/>
+    <hyperlink ref="A72" r:id="rId59" display="P1131 [ZJOI2007]时态同步"/>
+    <hyperlink ref="A73" r:id="rId60" display="P2986 [USACO10MAR]伟大的奶牛聚集"/>
+    <hyperlink ref="A74" r:id="rId61" display="P2661 信息传递"/>
+    <hyperlink ref="A76" r:id="rId62" display="P2158 [SDOI2008]仪仗队"/>
+    <hyperlink ref="A77" r:id="rId63" display="P1372 又是毕业季" tooltip="https://www.luogu.org/problem/P1372"/>
+    <hyperlink ref="A78" r:id="rId64" display="P1338 末日的传说"/>
+    <hyperlink ref="A80" r:id="rId65" display="P1582 倒水"/>
+    <hyperlink ref="A82" r:id="rId66" display="P1330 封锁阳光大学"/>
+    <hyperlink ref="A83" r:id="rId67" display="P1233 木棍加工"/>
+    <hyperlink ref="A84" r:id="rId68" display="P1327 数列排序"/>
+    <hyperlink ref="A85" r:id="rId69" display="P4170 [CQOI2007]涂色"/>
+    <hyperlink ref="A86" r:id="rId70" display="P1348 Couple number"/>
+    <hyperlink ref="A87" r:id="rId71" display="ABC136 E Max GCD"/>
+    <hyperlink ref="A89" r:id="rId72" display="CF1201A Important Exam"/>
+    <hyperlink ref="A90" r:id="rId73" display="机器人搬重物" tooltip="https://www.luogu.org/problem/P1126"/>
+    <hyperlink ref="A91" r:id="rId74" display="独木桥"/>
+    <hyperlink ref="A92" r:id="rId75" display="2013&#10;P1970 花匠"/>
+    <hyperlink ref="A93" r:id="rId76" display="2000 乘积最大"/>
+    <hyperlink ref="A94" r:id="rId77" display=" 关押罪犯"/>
+    <hyperlink ref="A95" r:id="rId78" display="联合权值"/>
+    <hyperlink ref="A97" r:id="rId79" display="P1098 字符串的展开" tooltip="https://www.luogu.org/problem/P1098"/>
+    <hyperlink ref="A100" r:id="rId80" display="P1417 烹调方案"/>
+    <hyperlink ref="A104" r:id="rId81" display="P1387 最大正方形"/>
+    <hyperlink ref="A133" r:id="rId82" display="三个朋友"/>
+    <hyperlink ref="A134" r:id="rId83" display="Radio Transmission"/>
+    <hyperlink ref="A135" r:id="rId84" display="OKR-Periods of Words"/>
+    <hyperlink ref="A136" r:id="rId85" display="Censoring"/>
+    <hyperlink ref="A137" r:id="rId86" display="黑暗城堡"/>
+    <hyperlink ref="A138" r:id="rId87" display="114514"/>
+    <hyperlink ref="A139" r:id="rId88" display="消息的传递"/>
+    <hyperlink ref="A140" r:id="rId89" display="间谍网络"/>
+    <hyperlink ref="A141" r:id="rId90" display="抢掠计划"/>
+    <hyperlink ref="A142" r:id="rId91" display="架设电话线"/>
+    <hyperlink ref="A143" r:id="rId92" display="Sightseeing Trip"/>
+    <hyperlink ref="A144" r:id="rId93" display="农场派对"/>
+    <hyperlink ref="A145" r:id="rId94" display="Roadblocks" tooltip="https://loj.ac/problem/10076"/>
+    <hyperlink ref="A146" r:id="rId95" display="次小生成树" tooltip="https://loj.ac/problem/10071"/>
+    <hyperlink ref="A147" r:id="rId96" display="秘密的牛奶运输" tooltip="https://loj.ac/problem/10068"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId92"/>
-  <drawing r:id="rId93"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/总结.xlsx
+++ b/总结.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" tabRatio="447"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765" tabRatio="447"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="483">
   <si>
     <t>题号</t>
   </si>
@@ -1555,7 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P1508</t>
     </r>
@@ -1564,7 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -1573,7 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF0056B3"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Likecloud-吃、吃、吃</t>
     </r>
@@ -1764,7 +1764,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>P1119</t>
     </r>
@@ -1773,7 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -1782,7 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>灾后重建</t>
     </r>
@@ -1799,7 +1799,7 @@
         <sz val="12"/>
         <color rgb="FF3498DB"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P1220 </t>
     </r>
@@ -2297,9 +2297,6 @@
     <t>最小生成树？最短路 要求1到各点的最短路满足生成树，求生成树个数</t>
   </si>
   <si>
-    <t>用dij算出没个点到1的最短，然后计算每个点加入生成树的方案数。我sb了把cnt[v]++写错成cnt[v]++了，然后还以为是dij写错了，改了半个小时</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2505,19 +2502,116 @@
   </si>
   <si>
     <t>上面那个题交过来就a了，双倍经验吧</t>
+  </si>
+  <si>
+    <t>用dij算出没个点到1的最短，然后计算每个点加入生成树的方案数。我sb了把cnt[v]++写错成cnt[x]++了，然后还以为是dij写错了，改了半个小时</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>次小生成树重构</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛谷调出来了！！！原来是我inf开小了绝了！！！</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年好</t>
+  </si>
+  <si>
+    <t>n点必须经过其中5个点的答案，最短路加排列</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>写了个nextpermutation居然过了，还建了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5张图</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.25</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优贸易</t>
+  </si>
+  <si>
+    <t>以前拿缩点做了一遍，然后这里建了两张图，化边权为点权</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把循环的变量写错了wa了一边蠢</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路和航线</t>
+  </si>
+  <si>
+    <t>spfa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>有负边就写了spfa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路计数</t>
+  </si>
+  <si>
+    <t>求到各个点最短路的个数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用最短路由最短路扩展而来的原理计数即可</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2537,7 +2631,7 @@
       <sz val="12"/>
       <color indexed="49"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2548,7 +2642,7 @@
       <sz val="12"/>
       <color rgb="FF0056B3"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2560,7 +2654,7 @@
       <sz val="12"/>
       <color rgb="FF3498DB"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2573,143 +2667,7 @@
       <sz val="10.5"/>
       <color rgb="FF1E70BF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2724,8 +2682,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1E70BF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2744,194 +2730,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2967,251 +2767,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3231,13 +2792,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,7 +2807,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3270,10 +2831,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3290,7 +2851,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3303,63 +2864,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3370,7 +2900,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3392,7 +2922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect r="3570" b="12625"/>
         <a:stretch>
           <a:fillRect/>
@@ -3431,7 +2961,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3461,7 +2991,7 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
@@ -3508,7 +3038,7 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>715010</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3550,6 +3080,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -3560,11 +3091,6 @@
             </a:rPr>
             <a:t>真香</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3852,19 +3378,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142:D147"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="66.625" style="1" customWidth="1"/>
@@ -3887,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3427,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3915,7 +3441,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3455,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +3469,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3957,7 +3483,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3971,7 +3497,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3985,7 +3511,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="30" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3996,10 +3522,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -4013,7 +3539,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="30" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -4025,7 +3551,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4039,7 +3565,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -4051,7 +3577,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="30" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -4063,7 +3589,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -4077,7 +3603,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -4091,7 +3617,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="30" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -4105,7 +3631,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="30" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
@@ -4119,7 +3645,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="30" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
@@ -4133,7 +3659,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="30" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -4147,7 +3673,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="30" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>57</v>
       </c>
@@ -4161,7 +3687,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="22" ht="38.25" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="38.25" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -4175,7 +3701,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="30" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
@@ -4189,7 +3715,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
@@ -4203,7 +3729,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="25" ht="45" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="45" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -4217,7 +3743,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="30" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -4231,7 +3757,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="27" ht="43.5" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="43.5" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
@@ -4245,7 +3771,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="42" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>78</v>
       </c>
@@ -4259,7 +3785,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" ht="30" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="30" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>81</v>
       </c>
@@ -4273,7 +3799,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="30" ht="61.5" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="61.5" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>84</v>
       </c>
@@ -4287,7 +3813,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="31" ht="30" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="30" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
@@ -4301,7 +3827,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -4315,7 +3841,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
@@ -4329,7 +3855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="30" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
@@ -4343,7 +3869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" ht="30" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="30" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -4357,7 +3883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" ht="30" customHeight="1" spans="1:4">
+    <row r="36" spans="1:4" ht="30" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>103</v>
       </c>
@@ -4371,7 +3897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" ht="40.5" spans="1:4">
+    <row r="37" spans="1:4" ht="40.5">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -4385,7 +3911,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" ht="30" customHeight="1" spans="1:4">
+    <row r="38" spans="1:4" ht="30" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>110</v>
       </c>
@@ -4399,7 +3925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" ht="30" customHeight="1" spans="1:4">
+    <row r="39" spans="1:4" ht="30" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
@@ -4413,7 +3939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" ht="30" customHeight="1" spans="1:4">
+    <row r="40" spans="1:4" ht="30" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
@@ -4427,7 +3953,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" ht="30" customHeight="1" spans="1:4">
+    <row r="41" spans="1:4" ht="30" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -4441,7 +3967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" ht="30" customHeight="1" spans="1:4">
+    <row r="42" spans="1:4" ht="30" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>123</v>
       </c>
@@ -4455,7 +3981,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" ht="30" customHeight="1" spans="1:4">
+    <row r="43" spans="1:4" ht="30" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
@@ -4469,7 +3995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" ht="30" customHeight="1" spans="1:4">
+    <row r="44" spans="1:4" ht="30" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>129</v>
       </c>
@@ -4483,7 +4009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" ht="30" customHeight="1" spans="1:4">
+    <row r="45" spans="1:4" ht="30" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -4497,7 +4023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" ht="30" customHeight="1" spans="1:4">
+    <row r="46" spans="1:4" ht="30" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>134</v>
       </c>
@@ -4511,7 +4037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" ht="30" customHeight="1" spans="1:4">
+    <row r="47" spans="1:4" ht="30" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>138</v>
       </c>
@@ -4525,7 +4051,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" ht="30" customHeight="1" spans="1:4">
+    <row r="48" spans="1:4" ht="30" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>141</v>
       </c>
@@ -4539,7 +4065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" ht="30" customHeight="1" spans="1:4">
+    <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>144</v>
       </c>
@@ -4553,7 +4079,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1" spans="1:4">
+    <row r="50" spans="1:7" ht="30" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>146</v>
       </c>
@@ -4567,7 +4093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" ht="30" customHeight="1" spans="1:5">
+    <row r="51" spans="1:7" ht="30" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>149</v>
       </c>
@@ -4582,7 +4108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" ht="30" customHeight="1" spans="1:5">
+    <row r="52" spans="1:7" ht="30" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>153</v>
       </c>
@@ -4599,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1" spans="1:5">
+    <row r="53" spans="1:7" ht="30" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>157</v>
       </c>
@@ -4616,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" ht="30" customHeight="1" spans="1:5">
+    <row r="54" spans="1:7" ht="30" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>160</v>
       </c>
@@ -4633,7 +4159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1" spans="1:5">
+    <row r="55" spans="1:7" ht="30" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>162</v>
       </c>
@@ -4650,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1" spans="1:5">
+    <row r="56" spans="1:7" ht="30" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>165</v>
       </c>
@@ -4667,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1" spans="1:5">
+    <row r="57" spans="1:7" ht="30" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>168</v>
       </c>
@@ -4684,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" ht="40.5" customHeight="1" spans="1:7">
+    <row r="58" spans="1:7" ht="40.5" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>171</v>
       </c>
@@ -4704,7 +4230,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" ht="30" customHeight="1" spans="1:7">
+    <row r="59" spans="1:7" ht="30" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>176</v>
       </c>
@@ -4724,7 +4250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" ht="30" customHeight="1" spans="1:5">
+    <row r="60" spans="1:7" ht="30" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>180</v>
       </c>
@@ -4741,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" ht="30" customHeight="1" spans="1:5">
+    <row r="61" spans="1:7" ht="30" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>183</v>
       </c>
@@ -4758,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" ht="30" customHeight="1" spans="1:5">
+    <row r="62" spans="1:7" ht="30" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>185</v>
       </c>
@@ -4775,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" ht="30" customHeight="1" spans="1:5">
+    <row r="63" spans="1:7" ht="30" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>189</v>
       </c>
@@ -4792,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" ht="30" customHeight="1" spans="1:5">
+    <row r="64" spans="1:7" ht="30" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>192</v>
       </c>
@@ -4809,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" ht="30" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="30" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>195</v>
       </c>
@@ -4826,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" ht="30" customHeight="1" spans="1:4">
+    <row r="66" spans="1:5" ht="30" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>199</v>
       </c>
@@ -4840,7 +4366,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" ht="30" customHeight="1" spans="1:4">
+    <row r="67" spans="1:5" ht="30" customHeight="1">
       <c r="A67" s="8" t="s">
         <v>202</v>
       </c>
@@ -4854,7 +4380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="30" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="30" customHeight="1">
       <c r="A68" s="19" t="s">
         <v>206</v>
       </c>
@@ -4871,7 +4397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" ht="30" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="30" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>211</v>
       </c>
@@ -4888,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="30" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="30" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>214</v>
       </c>
@@ -4905,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" ht="61.5" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="61.5" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>217</v>
       </c>
@@ -4922,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="46.5" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="46.5" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>221</v>
       </c>
@@ -4939,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="60" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="60" customHeight="1">
       <c r="A73" s="20" t="s">
         <v>224</v>
       </c>
@@ -4956,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" ht="49.5" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="49.5" customHeight="1">
       <c r="A74" s="21" t="s">
         <v>228</v>
       </c>
@@ -4973,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" ht="30" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="30" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>231</v>
       </c>
@@ -4990,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" ht="54" spans="1:5">
+    <row r="76" spans="1:5" ht="54">
       <c r="A76" s="7" t="s">
         <v>234</v>
       </c>
@@ -5007,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" ht="30" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="30" customHeight="1">
       <c r="A77" s="22" t="s">
         <v>238</v>
       </c>
@@ -5024,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" ht="30" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="30" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>241</v>
       </c>
@@ -5041,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" ht="30" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="30" customHeight="1">
       <c r="A79" s="22" t="s">
         <v>244</v>
       </c>
@@ -5058,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="87" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="87" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>247</v>
       </c>
@@ -5075,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="66" customHeight="1" spans="1:5">
+    <row r="81" spans="1:5" ht="66" customHeight="1">
       <c r="A81" s="23" t="s">
         <v>251</v>
       </c>
@@ -5092,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="82.15" customHeight="1" spans="1:5">
+    <row r="82" spans="1:5" ht="82.15" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>254</v>
       </c>
@@ -5109,7 +4635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" ht="49.15" customHeight="1" spans="1:5">
+    <row r="83" spans="1:5" ht="49.15" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>258</v>
       </c>
@@ -5126,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="112.15" customHeight="1" spans="1:5">
+    <row r="84" spans="1:5" ht="112.15" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>261</v>
       </c>
@@ -5143,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" ht="55.9" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5" ht="55.9" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>264</v>
       </c>
@@ -5160,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="30" customHeight="1" spans="1:5">
+    <row r="86" spans="1:5" ht="30" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>266</v>
       </c>
@@ -5177,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="30" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5" ht="30" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>268</v>
       </c>
@@ -5194,7 +4720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="66" customHeight="1" spans="1:5">
+    <row r="88" spans="1:5" ht="66" customHeight="1">
       <c r="A88" s="26" t="s">
         <v>272</v>
       </c>
@@ -5211,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" ht="30" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="30" customHeight="1">
       <c r="A89" s="21" t="s">
         <v>274</v>
       </c>
@@ -5228,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="52.15" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="52.15" customHeight="1">
       <c r="A90" s="27" t="s">
         <v>277</v>
       </c>
@@ -5245,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="30" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="30" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>280</v>
       </c>
@@ -5262,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" ht="73.15" customHeight="1" spans="1:5">
+    <row r="92" spans="1:5" ht="73.150000000000006" customHeight="1">
       <c r="A92" s="28" t="s">
         <v>283</v>
       </c>
@@ -5279,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" ht="49.15" customHeight="1" spans="1:5">
+    <row r="93" spans="1:5" ht="49.15" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>287</v>
       </c>
@@ -5296,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" ht="57" customHeight="1" spans="1:5">
+    <row r="94" spans="1:5" ht="57" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>291</v>
       </c>
@@ -5311,7 +4837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" ht="30" customHeight="1" spans="1:4">
+    <row r="95" spans="1:5" ht="30" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>294</v>
       </c>
@@ -5323,7 +4849,7 @@
       </c>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" ht="30" customHeight="1" spans="1:4">
+    <row r="96" spans="1:5" ht="30" customHeight="1">
       <c r="A96" s="23" t="s">
         <v>297</v>
       </c>
@@ -5335,7 +4861,7 @@
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" ht="30" customHeight="1" spans="1:4">
+    <row r="97" spans="1:4" ht="30" customHeight="1">
       <c r="A97" s="29" t="s">
         <v>300</v>
       </c>
@@ -5347,7 +4873,7 @@
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" ht="30" customHeight="1" spans="1:4">
+    <row r="98" spans="1:4" ht="30" customHeight="1">
       <c r="A98" s="29" t="s">
         <v>302</v>
       </c>
@@ -5359,7 +4885,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" ht="30" customHeight="1" spans="1:4">
+    <row r="99" spans="1:4" ht="30" customHeight="1">
       <c r="A99" s="29" t="s">
         <v>305</v>
       </c>
@@ -5371,7 +4897,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" ht="43.15" customHeight="1" spans="1:4">
+    <row r="100" spans="1:4" ht="43.15" customHeight="1">
       <c r="A100" s="21" t="s">
         <v>308</v>
       </c>
@@ -5385,7 +4911,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" ht="30" customHeight="1" spans="1:4">
+    <row r="101" spans="1:4" ht="30" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -5399,7 +4925,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" ht="54" customHeight="1" spans="1:4">
+    <row r="102" spans="1:4" ht="54" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>316</v>
       </c>
@@ -5413,7 +4939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" ht="76.15" customHeight="1" spans="1:4">
+    <row r="103" spans="1:4" ht="76.150000000000006" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>319</v>
       </c>
@@ -5427,7 +4953,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="58.15" customHeight="1" spans="1:4">
+    <row r="104" spans="1:4" ht="58.15" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>322</v>
       </c>
@@ -5441,7 +4967,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="105" ht="46.15" customHeight="1" spans="1:4">
+    <row r="105" spans="1:4" ht="46.15" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>326</v>
       </c>
@@ -5455,7 +4981,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="46.9" customHeight="1" spans="1:4">
+    <row r="106" spans="1:4" ht="46.9" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>329</v>
       </c>
@@ -5469,7 +4995,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" ht="30" customHeight="1" spans="1:4">
+    <row r="107" spans="1:4" ht="30" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>332</v>
       </c>
@@ -5483,7 +5009,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="108" ht="30" customHeight="1" spans="1:4">
+    <row r="108" spans="1:4" ht="30" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>335</v>
       </c>
@@ -5497,7 +5023,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="109" ht="30" customHeight="1" spans="1:4">
+    <row r="109" spans="1:4" ht="30" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>339</v>
       </c>
@@ -5505,7 +5031,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" ht="51" customHeight="1" spans="1:4">
+    <row r="110" spans="1:4" ht="51" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>340</v>
       </c>
@@ -5519,7 +5045,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="111" ht="42" customHeight="1" spans="1:4">
+    <row r="111" spans="1:4" ht="42" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>343</v>
       </c>
@@ -5533,7 +5059,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="112" ht="76.9" customHeight="1" spans="1:4">
+    <row r="112" spans="1:4" ht="76.900000000000006" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>347</v>
       </c>
@@ -5547,7 +5073,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113" ht="30" customHeight="1" spans="1:4">
+    <row r="113" spans="1:4" ht="30" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>350</v>
       </c>
@@ -5561,7 +5087,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" ht="45" customHeight="1" spans="1:4">
+    <row r="114" spans="1:4" ht="45" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>354</v>
       </c>
@@ -5575,7 +5101,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" ht="30" customHeight="1" spans="1:4">
+    <row r="115" spans="1:4" ht="30" customHeight="1">
       <c r="A115" s="23" t="s">
         <v>358</v>
       </c>
@@ -5589,7 +5115,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" ht="42" customHeight="1" spans="1:4">
+    <row r="116" spans="1:4" ht="42" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>362</v>
       </c>
@@ -5603,7 +5129,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" ht="30" customHeight="1" spans="1:4">
+    <row r="117" spans="1:4" ht="30" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>366</v>
       </c>
@@ -5617,7 +5143,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" ht="30" customHeight="1" spans="1:4">
+    <row r="118" spans="1:4" ht="30" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>369</v>
       </c>
@@ -5631,7 +5157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" ht="45.75" customHeight="1" spans="1:4">
+    <row r="119" spans="1:4" ht="45.75" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>372</v>
       </c>
@@ -5645,7 +5171,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" ht="30" customHeight="1" spans="1:4">
+    <row r="120" spans="1:4" ht="30" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>375</v>
       </c>
@@ -5659,7 +5185,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" ht="30" customHeight="1" spans="1:4">
+    <row r="121" spans="1:4" ht="30" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>379</v>
       </c>
@@ -5673,7 +5199,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="122" ht="30" customHeight="1" spans="1:4">
+    <row r="122" spans="1:4" ht="30" customHeight="1">
       <c r="A122" s="23" t="s">
         <v>382</v>
       </c>
@@ -5687,7 +5213,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" ht="30" customHeight="1" spans="1:4">
+    <row r="123" spans="1:4" ht="30" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>385</v>
       </c>
@@ -5701,7 +5227,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="124" ht="66.75" customHeight="1" spans="1:4">
+    <row r="124" spans="1:4" ht="66.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>388</v>
       </c>
@@ -5715,7 +5241,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" ht="30" customHeight="1" spans="1:4">
+    <row r="125" spans="1:4" ht="30" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>392</v>
       </c>
@@ -5729,7 +5255,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" ht="49.5" customHeight="1" spans="1:4">
+    <row r="126" spans="1:4" ht="49.5" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>396</v>
       </c>
@@ -5743,7 +5269,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="127" ht="48" customHeight="1" spans="1:4">
+    <row r="127" spans="1:4" ht="48" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>400</v>
       </c>
@@ -5757,7 +5283,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" ht="30" customHeight="1" spans="1:4">
+    <row r="128" spans="1:4" ht="30" customHeight="1">
       <c r="A128" s="30" t="s">
         <v>404</v>
       </c>
@@ -5771,7 +5297,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" ht="56.25" customHeight="1" spans="1:4">
+    <row r="129" spans="1:4" ht="56.25" customHeight="1">
       <c r="A129" s="30" t="s">
         <v>408</v>
       </c>
@@ -5785,7 +5311,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="130" ht="54" customHeight="1" spans="1:4">
+    <row r="130" spans="1:4" ht="54" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>411</v>
       </c>
@@ -5799,7 +5325,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1" spans="1:4">
+    <row r="131" spans="1:4" ht="30" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>414</v>
       </c>
@@ -5813,7 +5339,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1" spans="1:4">
+    <row r="132" spans="1:4" ht="30" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>417</v>
       </c>
@@ -5827,7 +5353,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1" spans="1:4">
+    <row r="133" spans="1:4" ht="30" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>420</v>
       </c>
@@ -5841,7 +5367,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="134" ht="30" customHeight="1" spans="1:4">
+    <row r="134" spans="1:4" ht="30" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>423</v>
       </c>
@@ -5855,7 +5381,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" ht="46.5" customHeight="1" spans="1:4">
+    <row r="135" spans="1:4" ht="46.5" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>427</v>
       </c>
@@ -5869,7 +5395,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="136" ht="50.25" customHeight="1" spans="1:4">
+    <row r="136" spans="1:4" ht="50.25" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>430</v>
       </c>
@@ -5883,365 +5409,400 @@
         <v>426</v>
       </c>
     </row>
-    <row r="137" ht="50.25" customHeight="1" spans="1:4">
+    <row r="137" spans="1:4" ht="50.25" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>433</v>
       </c>
       <c r="B137" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="D137" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="D137" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="138" ht="30" customHeight="1" spans="1:4">
+    </row>
+    <row r="138" spans="1:4" ht="30" customHeight="1">
       <c r="A138" s="7">
         <v>114514</v>
       </c>
       <c r="B138" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C138" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="D138" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="30" customHeight="1">
+      <c r="A139" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="D138" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="139" ht="30" customHeight="1" spans="1:4">
-      <c r="A139" s="33" t="s">
+      <c r="B139" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="C139" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="D139" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="D139" s="32" t="s">
+    </row>
+    <row r="140" spans="1:4" ht="30" customHeight="1">
+      <c r="A140" s="33" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="140" ht="30" customHeight="1" spans="1:4">
-      <c r="A140" s="33" t="s">
+      <c r="B140" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="C140" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="D140" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="56.1" customHeight="1">
+      <c r="A141" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D140" s="32" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="141" ht="56" customHeight="1" spans="1:4">
-      <c r="A141" s="33" t="s">
+      <c r="B141" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="C141" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="D141" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="59.1" customHeight="1">
+      <c r="A142" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D141" s="32" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="142" ht="59" customHeight="1" spans="1:4">
-      <c r="A142" s="21" t="s">
+      <c r="B142" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D142" s="6" t="s">
+    </row>
+    <row r="143" spans="1:4" ht="57" customHeight="1">
+      <c r="A143" s="21" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="143" ht="57" customHeight="1" spans="1:4">
-      <c r="A143" s="21" t="s">
+      <c r="B143" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="D143" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="30" customHeight="1">
+      <c r="A144" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="144" ht="30" customHeight="1" spans="1:4">
-      <c r="A144" s="21" t="s">
+      <c r="B144" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="D144" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="105" customHeight="1">
+      <c r="A145" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="145" ht="105" customHeight="1" spans="1:4">
-      <c r="A145" s="34" t="s">
+      <c r="B145" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="D145" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="57" customHeight="1">
+      <c r="A146" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="146" ht="57" customHeight="1" spans="1:4">
-      <c r="A146" s="35" t="s">
+      <c r="B146" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" customHeight="1">
+      <c r="A147" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="147" ht="30" customHeight="1" spans="1:4">
-      <c r="A147" s="34" t="s">
+      <c r="B147" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="D147" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="148" ht="30" customHeight="1" spans="1:4">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" ht="30" customHeight="1" spans="1:4">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" ht="30" customHeight="1" spans="1:4">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="5"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="60.75" customHeight="1">
+      <c r="A148" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30" customHeight="1">
+      <c r="A149" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" customHeight="1">
+      <c r="A150" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>476</v>
+      </c>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" ht="30" customHeight="1" spans="1:4">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" ht="30" customHeight="1" spans="1:4">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
+    <row r="151" spans="1:4" ht="30" customHeight="1">
+      <c r="A151" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="30" customHeight="1">
+      <c r="A152" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>482</v>
+      </c>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" ht="30" customHeight="1" spans="1:4">
+    <row r="153" spans="1:4" ht="30" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" ht="30" customHeight="1" spans="1:4">
+    <row r="154" spans="1:4" ht="30" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" ht="30" customHeight="1" spans="1:4">
+    <row r="155" spans="1:4" ht="30" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" ht="30" customHeight="1" spans="1:4">
+    <row r="156" spans="1:4" ht="30" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" ht="30" customHeight="1" spans="1:4">
+    <row r="157" spans="1:4" ht="30" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" ht="30" customHeight="1" spans="1:4">
+    <row r="158" spans="1:4" ht="30" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
       <c r="D158" s="6"/>
     </row>
-    <row r="159" ht="30" customHeight="1" spans="1:4">
+    <row r="159" spans="1:4" ht="30" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
       <c r="D159" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId2" display="上白泽慧音 "/>
-    <hyperlink ref="A13" r:id="rId3" display="P5462 X龙珠"/>
-    <hyperlink ref="A14" r:id="rId4" display="P5463 小鱼比可爱（加强版） "/>
-    <hyperlink ref="A15" r:id="rId5" display="P3377 【模板】左偏树（可并堆） "/>
-    <hyperlink ref="A16" r:id="rId6" display="P3373 【模板】线段树 2 "/>
-    <hyperlink ref="A17" r:id="rId7" display="P1631 序列合并 "/>
-    <hyperlink ref="A18" r:id="rId8" display="P1880 [NOI1995]石子合并 "/>
-    <hyperlink ref="A19" r:id="rId9" display="AT2827 LIS "/>
-    <hyperlink ref="A20" r:id="rId10" display="【模板】可持久化数组（可持久化线段树/平衡树） "/>
-    <hyperlink ref="A22" r:id="rId11" display="P1005 矩阵取数游戏 "/>
-    <hyperlink ref="A21" r:id="rId12" display="#6560. 小奇取石子"/>
-    <hyperlink ref="A23" r:id="rId13" display="poj2955Brackets"/>
-    <hyperlink ref="A24" r:id="rId14" display=" [IOI1998]Polygon "/>
-    <hyperlink ref="A25" r:id="rId15" display="P2746 [USACO5.3]校园网Network of Schools "/>
-    <hyperlink ref="A26" r:id="rId16" display=" 没有上司的舞会"/>
-    <hyperlink ref="A27" r:id="rId17" display="P2015 二叉苹果树 "/>
-    <hyperlink ref="A28" r:id="rId18" display="P1757 通天之分组背包 "/>
-    <hyperlink ref="A29" r:id="rId19" display="P1273 有线电视网 "/>
-    <hyperlink ref="A30" r:id="rId20" display="P2607 [ZJOI2008]骑士 "/>
-    <hyperlink ref="A31" r:id="rId21" display="挖地雷"/>
-    <hyperlink ref="A32" r:id="rId22" display="小凯的疑惑"/>
-    <hyperlink ref="A33" r:id="rId23" display="P1972 [SDOI2009]HH的项链 "/>
-    <hyperlink ref="A34" r:id="rId24" display="SP3267 DQUERY - D-query "/>
-    <hyperlink ref="A36" r:id="rId25" display="P2023 [AHOI2009]维护序列"/>
-    <hyperlink ref="A37" r:id="rId26" display="Can you answer these queries III "/>
-    <hyperlink ref="A38" r:id="rId27" display="P2240 数的计数数据加强版 "/>
-    <hyperlink ref="A39" r:id="rId28" display="P2279 [HNOI2003]消防局的设立 "/>
-    <hyperlink ref="A40" r:id="rId29" display="P1111 修复公路 "/>
-    <hyperlink ref="A41" r:id="rId30" display="P2698 [USACO12MAR]花盆Flowerpot "/>
-    <hyperlink ref="A42" r:id="rId31" display="P1182 数列分段 Section II "/>
-    <hyperlink ref="A43" r:id="rId32" display="P1134 阶乘问题 "/>
-    <hyperlink ref="A44" r:id="rId33" display="P1316 丢瓶盖 "/>
-    <hyperlink ref="A45" r:id="rId34" display="P1939 【模板】矩阵加速（数列） "/>
-    <hyperlink ref="A46" r:id="rId35" display="P1020 导弹拦截 "/>
-    <hyperlink ref="A47" r:id="rId36" display=" [JSOI2004]平衡点 / 吊打XXX "/>
-    <hyperlink ref="A48" r:id="rId37" display="[SHOI2002]滑雪 "/>
-    <hyperlink ref="A49" r:id="rId38" display="[USACO09MAR]沙堡Sand Castle "/>
-    <hyperlink ref="A50" r:id="rId39" display=" [AHOI2005]约数研究 "/>
-    <hyperlink ref="A51" r:id="rId40" display="P1282 多米诺骨牌 "/>
-    <hyperlink ref="A52" r:id="rId41" display=" [HAOI2012]音量调节 "/>
-    <hyperlink ref="A53" r:id="rId42" display="bxt 光环"/>
-    <hyperlink ref="A54" r:id="rId43" display="P1569 [USACO11FEB]属牛的抗议"/>
-    <hyperlink ref="A55" r:id="rId44" display="P1865 A % B Problem "/>
-    <hyperlink ref="A56" r:id="rId45" display="P2663 越越的组队 "/>
-    <hyperlink ref="A57" r:id="rId46" display="P2504 [HAOI2006]聪明的猴子 "/>
-    <hyperlink ref="A58" r:id="rId47" display="P1006 传纸条"/>
-    <hyperlink ref="A60" r:id="rId48" display="[NOI2001]食物链"/>
-    <hyperlink ref="A61" r:id="rId49" display="能量项链"/>
-    <hyperlink ref="A62" r:id="rId50" display="[JSOI2008]星球大战"/>
-    <hyperlink ref="A63" r:id="rId51" display="[ZJOI2008]树的统计"/>
-    <hyperlink ref="A64" r:id="rId52" display=" [HAOI2015]树上染色"/>
-    <hyperlink ref="A65" r:id="rId53" display=" [NOI2015]程序自动分析"/>
-    <hyperlink ref="A66" r:id="rId54" display="P1967 货车运输"/>
-    <hyperlink ref="A67" r:id="rId55" display="失衡天平"/>
-    <hyperlink ref="A69" r:id="rId56" display="P4316 绿豆蛙的归宿"/>
-    <hyperlink ref="A70" r:id="rId57" display="P1850 换教室"/>
-    <hyperlink ref="A71" r:id="rId58" display="P1541 乌龟棋"/>
-    <hyperlink ref="A72" r:id="rId59" display="P1131 [ZJOI2007]时态同步"/>
-    <hyperlink ref="A73" r:id="rId60" display="P2986 [USACO10MAR]伟大的奶牛聚集"/>
-    <hyperlink ref="A74" r:id="rId61" display="P2661 信息传递"/>
-    <hyperlink ref="A76" r:id="rId62" display="P2158 [SDOI2008]仪仗队"/>
-    <hyperlink ref="A77" r:id="rId63" display="P1372 又是毕业季" tooltip="https://www.luogu.org/problem/P1372"/>
-    <hyperlink ref="A78" r:id="rId64" display="P1338 末日的传说"/>
-    <hyperlink ref="A80" r:id="rId65" display="P1582 倒水"/>
-    <hyperlink ref="A82" r:id="rId66" display="P1330 封锁阳光大学"/>
-    <hyperlink ref="A83" r:id="rId67" display="P1233 木棍加工"/>
-    <hyperlink ref="A84" r:id="rId68" display="P1327 数列排序"/>
-    <hyperlink ref="A85" r:id="rId69" display="P4170 [CQOI2007]涂色"/>
-    <hyperlink ref="A86" r:id="rId70" display="P1348 Couple number"/>
-    <hyperlink ref="A87" r:id="rId71" display="ABC136 E Max GCD"/>
-    <hyperlink ref="A89" r:id="rId72" display="CF1201A Important Exam"/>
-    <hyperlink ref="A90" r:id="rId73" display="机器人搬重物" tooltip="https://www.luogu.org/problem/P1126"/>
-    <hyperlink ref="A91" r:id="rId74" display="独木桥"/>
-    <hyperlink ref="A92" r:id="rId75" display="2013&#10;P1970 花匠"/>
-    <hyperlink ref="A93" r:id="rId76" display="2000 乘积最大"/>
-    <hyperlink ref="A94" r:id="rId77" display=" 关押罪犯"/>
-    <hyperlink ref="A95" r:id="rId78" display="联合权值"/>
-    <hyperlink ref="A97" r:id="rId79" display="P1098 字符串的展开" tooltip="https://www.luogu.org/problem/P1098"/>
-    <hyperlink ref="A100" r:id="rId80" display="P1417 烹调方案"/>
-    <hyperlink ref="A104" r:id="rId81" display="P1387 最大正方形"/>
-    <hyperlink ref="A133" r:id="rId82" display="三个朋友"/>
-    <hyperlink ref="A134" r:id="rId83" display="Radio Transmission"/>
-    <hyperlink ref="A135" r:id="rId84" display="OKR-Periods of Words"/>
-    <hyperlink ref="A136" r:id="rId85" display="Censoring"/>
-    <hyperlink ref="A137" r:id="rId86" display="黑暗城堡"/>
-    <hyperlink ref="A138" r:id="rId87" display="114514"/>
-    <hyperlink ref="A139" r:id="rId88" display="消息的传递"/>
-    <hyperlink ref="A140" r:id="rId89" display="间谍网络"/>
-    <hyperlink ref="A141" r:id="rId90" display="抢掠计划"/>
-    <hyperlink ref="A142" r:id="rId91" display="架设电话线"/>
-    <hyperlink ref="A143" r:id="rId92" display="Sightseeing Trip"/>
-    <hyperlink ref="A144" r:id="rId93" display="农场派对"/>
-    <hyperlink ref="A145" r:id="rId94" display="Roadblocks" tooltip="https://loj.ac/problem/10076"/>
-    <hyperlink ref="A146" r:id="rId95" display="次小生成树" tooltip="https://loj.ac/problem/10071"/>
-    <hyperlink ref="A147" r:id="rId96" display="秘密的牛奶运输" tooltip="https://loj.ac/problem/10068"/>
+    <hyperlink ref="A11" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A16" r:id="rId5"/>
+    <hyperlink ref="A17" r:id="rId6"/>
+    <hyperlink ref="A18" r:id="rId7"/>
+    <hyperlink ref="A19" r:id="rId8"/>
+    <hyperlink ref="A20" r:id="rId9"/>
+    <hyperlink ref="A22" r:id="rId10"/>
+    <hyperlink ref="A21" r:id="rId11"/>
+    <hyperlink ref="A23" r:id="rId12"/>
+    <hyperlink ref="A24" r:id="rId13"/>
+    <hyperlink ref="A25" r:id="rId14"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A27" r:id="rId16"/>
+    <hyperlink ref="A28" r:id="rId17"/>
+    <hyperlink ref="A29" r:id="rId18"/>
+    <hyperlink ref="A30" r:id="rId19"/>
+    <hyperlink ref="A31" r:id="rId20"/>
+    <hyperlink ref="A32" r:id="rId21"/>
+    <hyperlink ref="A33" r:id="rId22"/>
+    <hyperlink ref="A34" r:id="rId23"/>
+    <hyperlink ref="A36" r:id="rId24"/>
+    <hyperlink ref="A37" r:id="rId25"/>
+    <hyperlink ref="A38" r:id="rId26"/>
+    <hyperlink ref="A39" r:id="rId27"/>
+    <hyperlink ref="A40" r:id="rId28"/>
+    <hyperlink ref="A41" r:id="rId29"/>
+    <hyperlink ref="A42" r:id="rId30"/>
+    <hyperlink ref="A43" r:id="rId31"/>
+    <hyperlink ref="A44" r:id="rId32"/>
+    <hyperlink ref="A45" r:id="rId33"/>
+    <hyperlink ref="A46" r:id="rId34"/>
+    <hyperlink ref="A47" r:id="rId35"/>
+    <hyperlink ref="A48" r:id="rId36"/>
+    <hyperlink ref="A49" r:id="rId37"/>
+    <hyperlink ref="A50" r:id="rId38"/>
+    <hyperlink ref="A51" r:id="rId39"/>
+    <hyperlink ref="A52" r:id="rId40"/>
+    <hyperlink ref="A53" r:id="rId41"/>
+    <hyperlink ref="A54" r:id="rId42"/>
+    <hyperlink ref="A55" r:id="rId43"/>
+    <hyperlink ref="A56" r:id="rId44"/>
+    <hyperlink ref="A57" r:id="rId45"/>
+    <hyperlink ref="A58" r:id="rId46"/>
+    <hyperlink ref="A60" r:id="rId47"/>
+    <hyperlink ref="A61" r:id="rId48"/>
+    <hyperlink ref="A62" r:id="rId49"/>
+    <hyperlink ref="A63" r:id="rId50"/>
+    <hyperlink ref="A64" r:id="rId51"/>
+    <hyperlink ref="A65" r:id="rId52"/>
+    <hyperlink ref="A66" r:id="rId53"/>
+    <hyperlink ref="A67" r:id="rId54"/>
+    <hyperlink ref="A69" r:id="rId55"/>
+    <hyperlink ref="A70" r:id="rId56"/>
+    <hyperlink ref="A71" r:id="rId57"/>
+    <hyperlink ref="A72" r:id="rId58"/>
+    <hyperlink ref="A73" r:id="rId59"/>
+    <hyperlink ref="A74" r:id="rId60"/>
+    <hyperlink ref="A76" r:id="rId61"/>
+    <hyperlink ref="A77" r:id="rId62" tooltip="https://www.luogu.org/problem/P1372"/>
+    <hyperlink ref="A78" r:id="rId63"/>
+    <hyperlink ref="A80" r:id="rId64"/>
+    <hyperlink ref="A82" r:id="rId65"/>
+    <hyperlink ref="A83" r:id="rId66"/>
+    <hyperlink ref="A84" r:id="rId67"/>
+    <hyperlink ref="A85" r:id="rId68"/>
+    <hyperlink ref="A86" r:id="rId69"/>
+    <hyperlink ref="A87" r:id="rId70"/>
+    <hyperlink ref="A89" r:id="rId71"/>
+    <hyperlink ref="A90" r:id="rId72" tooltip="https://www.luogu.org/problem/P1126"/>
+    <hyperlink ref="A91" r:id="rId73"/>
+    <hyperlink ref="A92" r:id="rId74"/>
+    <hyperlink ref="A93" r:id="rId75"/>
+    <hyperlink ref="A94" r:id="rId76"/>
+    <hyperlink ref="A95" r:id="rId77"/>
+    <hyperlink ref="A97" r:id="rId78" tooltip="https://www.luogu.org/problem/P1098"/>
+    <hyperlink ref="A100" r:id="rId79"/>
+    <hyperlink ref="A104" r:id="rId80"/>
+    <hyperlink ref="A133" r:id="rId81"/>
+    <hyperlink ref="A134" r:id="rId82"/>
+    <hyperlink ref="A135" r:id="rId83"/>
+    <hyperlink ref="A136" r:id="rId84"/>
+    <hyperlink ref="A137" r:id="rId85"/>
+    <hyperlink ref="A138" r:id="rId86" display="114514"/>
+    <hyperlink ref="A139" r:id="rId87"/>
+    <hyperlink ref="A140" r:id="rId88"/>
+    <hyperlink ref="A141" r:id="rId89"/>
+    <hyperlink ref="A142" r:id="rId90"/>
+    <hyperlink ref="A143" r:id="rId91"/>
+    <hyperlink ref="A144" r:id="rId92"/>
+    <hyperlink ref="A145" r:id="rId93" tooltip="https://loj.ac/problem/10076"/>
+    <hyperlink ref="A146" r:id="rId94" tooltip="https://loj.ac/problem/10071"/>
+    <hyperlink ref="A147" r:id="rId95" tooltip="https://loj.ac/problem/10068"/>
+    <hyperlink ref="A148" r:id="rId96" tooltip="https://loj.ac/problem/10071" display="次小生成树"/>
+    <hyperlink ref="A149" r:id="rId97" display="https://loj.ac/problem/10078"/>
+    <hyperlink ref="A150" r:id="rId98" display="https://loj.ac/problem/10079"/>
+    <hyperlink ref="A151" r:id="rId99" display="https://loj.ac/problem/10081"/>
+    <hyperlink ref="A152" r:id="rId100" display="https://loj.ac/problem/10077"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
+  <drawing r:id="rId102"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>